--- a/biology/Zoologie/Argyrotaenia_cupressae/Argyrotaenia_cupressae.xlsx
+++ b/biology/Zoologie/Argyrotaenia_cupressae/Argyrotaenia_cupressae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrotaenia cupressae est une espèce de papillons de la famille des Tortricidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrotaenia cupressae est une espèce de papillons de la famille des Tortricidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrotaenia cupressae est endémique de Californie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrotaenia cupressae est endémique de Californie.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est d'environ 18 à 19 mm.
 Des adultes ont été observés en vol de mai à septembre.
-Les larves se nourrissent de Cupressus goveniana, Cupressus forbesii, Cupressus guadalupensis, Cupressus macrocarpa, Cupressus sargentii, Cupressus sempervirens, Juniperus californica et Sequoia sempervirens[3].
+Les larves se nourrissent de Cupressus goveniana, Cupressus forbesii, Cupressus guadalupensis, Cupressus macrocarpa, Cupressus sargentii, Cupressus sempervirens, Juniperus californica et Sequoia sempervirens.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Argyrotaenia cupressae cupressae Powell, 1960
 Argyrotaenia cupressae beyeria Powell, 1960 (Californie)</t>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Argyrotaenia cupressae a été décrite en 1960 par l'entomologiste américain Jerry Allen Powell (d)[4],[5] (1933-2023).
-Argyrotaenia cupressae a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Argyrotaenia cupressae a été décrite en 1960 par l'entomologiste américain Jerry Allen Powell (d), (1933-2023).
+Argyrotaenia cupressae a pour synonymes :
 Argyrotaenia beyeria Powell, 1960
 Argyrotaenia cupressae beyeria Powell, 1960</t>
         </is>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Jerry A. Powell, « Descriptions of New Species of Argyrotaenia in the Southwestern United States », The Pan-Pacific Entomologist, San Francisco, Inconnu, vol. 36, no 2,‎ avril 1960, p. 83-97 (ISSN 0031-0603 et 2162-0237, OCLC 302366370, lire en ligne)</t>
         </is>
